--- a/excel_routes/route_CAI_ELQ_threats.xlsx
+++ b/excel_routes/route_CAI_ELQ_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -50,18 +50,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00D4EDDA"/>
         <bgColor rgb="00D4EDDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF3CD"/>
-        <bgColor rgb="00FFF3CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8D7DA"/>
-        <bgColor rgb="00F8D7DA"/>
       </patternFill>
     </fill>
   </fills>
@@ -83,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -92,12 +80,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +464,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -546,7 +528,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>08-JAN-26</t>
+          <t>11-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,17 +538,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>6561</v>
+        <v>6527</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>6586</v>
+        <v>7623</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-25</v>
+        <v>-1096</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -591,7 +573,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>09-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -605,13 +587,13 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>6561</v>
+        <v>8039</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6586</v>
+        <v>8228</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-25</v>
+        <v>-189</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -646,17 +628,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>6542</v>
+        <v>8127</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>6586</v>
+        <v>8228</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-44</v>
+        <v>-101</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -695,13 +677,13 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>7427</v>
+        <v>8606</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7682</v>
+        <v>10925</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-255</v>
+        <v>-2319</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -726,7 +708,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>16-JAN-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -740,13 +722,13 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6561</v>
+        <v>9148</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>6586</v>
+        <v>10925</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-25</v>
+        <v>-1777</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -771,7 +753,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>16-JAN-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -781,26 +763,26 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>EgyptAir MS-633</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>7580</v>
+        <v>12790</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>7682</v>
+        <v>10925</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-102</v>
+        <v>1865</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -816,7 +798,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>18-JAN-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,26 +808,26 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-633</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>8051</v>
+        <v>6527</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>7682</v>
+        <v>7145</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>369</v>
+        <v>-618</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
@@ -861,7 +843,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>18-JAN-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -875,13 +857,13 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>6561</v>
+        <v>6943</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>6586</v>
+        <v>7145</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-25</v>
+        <v>-202</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -906,7 +888,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,17 +898,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>6274</v>
+        <v>6527</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>6586</v>
+        <v>7623</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-312</v>
+        <v>-1096</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -951,7 +933,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -961,17 +943,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>6561</v>
+        <v>6527</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>6586</v>
+        <v>7623</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-25</v>
+        <v>-1096</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -996,7 +978,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,17 +988,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Air Arabia Egypt E5-591</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>6561</v>
+        <v>7270</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>6586</v>
+        <v>7623</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-25</v>
+        <v>-353</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1041,7 +1023,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>25-JAN-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1051,17 +1033,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>6542</v>
+        <v>6527</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>6586</v>
+        <v>6540</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-44</v>
+        <v>-13</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1086,7 +1068,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>25-JAN-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1096,17 +1078,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>6561</v>
+        <v>6527</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>6586</v>
+        <v>6540</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-25</v>
+        <v>-13</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1131,7 +1113,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1141,17 +1123,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Air Arabia Egypt E5-591</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>6561</v>
+        <v>6205</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>6586</v>
+        <v>6540</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-25</v>
+        <v>-335</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1176,7 +1158,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1190,13 +1172,13 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>6561</v>
+        <v>6527</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>6586</v>
+        <v>6540</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-25</v>
+        <v>-13</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1221,7 +1203,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1231,17 +1213,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>6561</v>
+        <v>6527</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>6586</v>
+        <v>6540</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-25</v>
+        <v>-13</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>30</v>
@@ -1266,7 +1248,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1280,13 +1262,13 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>6561</v>
+        <v>6527</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>6586</v>
+        <v>6540</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-25</v>
+        <v>-13</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>30</v>
@@ -1311,7 +1293,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1321,17 +1303,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>6561</v>
+        <v>6527</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>6586</v>
+        <v>6540</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-25</v>
+        <v>-13</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>30</v>
@@ -1356,7 +1338,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1366,17 +1348,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Air Arabia Egypt E5-591</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>6561</v>
+        <v>6205</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>6586</v>
+        <v>6540</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-25</v>
+        <v>-335</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>30</v>
@@ -1401,7 +1383,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1415,13 +1397,13 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>6561</v>
+        <v>6527</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>6586</v>
+        <v>6540</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-25</v>
+        <v>-13</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>30</v>
@@ -1446,7 +1428,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1456,17 +1438,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>6561</v>
+        <v>6527</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>6586</v>
+        <v>6540</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-25</v>
+        <v>-13</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>30</v>
@@ -1491,7 +1473,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1501,17 +1483,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>9160</v>
+        <v>6527</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>13988</v>
+        <v>6540</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-4828</v>
+        <v>-13</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>30</v>
@@ -1522,9 +1504,9 @@
       <c r="I23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1536,7 +1518,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1546,17 +1528,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>9185</v>
+        <v>6527</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>13988</v>
+        <v>6540</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-4803</v>
+        <v>-13</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>30</v>
@@ -1567,9 +1549,9 @@
       <c r="I24" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -1581,7 +1563,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>08-FEB-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1595,13 +1577,13 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>10243</v>
+        <v>6527</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>13988</v>
+        <v>6540</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-3745</v>
+        <v>-13</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>30</v>
@@ -1612,9 +1594,9 @@
       <c r="I25" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1626,7 +1608,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,17 +1618,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Air Arabia Egypt E5-591</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>10943</v>
+        <v>6205</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>13988</v>
+        <v>6540</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-3045</v>
+        <v>-335</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>30</v>
@@ -1657,9 +1639,9 @@
       <c r="I26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J26" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
@@ -1671,7 +1653,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,17 +1663,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>13066</v>
+        <v>6527</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>13988</v>
+        <v>6540</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-922</v>
+        <v>-13</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>30</v>
@@ -1716,7 +1698,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1726,26 +1708,26 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-633</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>14370</v>
+        <v>6527</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>13988</v>
+        <v>6540</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>382</v>
+        <v>-13</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
@@ -1761,7 +1743,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>27-MAR-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1775,13 +1757,13 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>15504</v>
+        <v>6527</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>16396</v>
+        <v>6540</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-892</v>
+        <v>-13</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>30</v>
@@ -1806,7 +1788,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>27-MAR-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1816,26 +1798,26 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-633</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>17364</v>
+        <v>6527</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>16396</v>
+        <v>6540</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>968</v>
+        <v>-13</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
@@ -1843,51 +1825,6 @@
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>31-MAR-26</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-633</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>10867</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>13988</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>-3121</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J31" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_CAI_ELQ_threats.xlsx
+++ b/excel_routes/route_CAI_ELQ_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -44,6 +44,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="003498DB"/>
         <bgColor rgb="003498DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8D7DA"/>
+        <bgColor rgb="00F8D7DA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF3CD"/>
+        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -71,7 +83,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -80,6 +92,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +482,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -528,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>18-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -538,17 +556,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>6940</v>
+        <v>13730</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>7142</v>
+        <v>19311</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-202</v>
+        <v>-5581</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -561,7 +579,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
@@ -573,7 +591,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>18-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -587,13 +605,13 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>8036</v>
+        <v>15317</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>8225</v>
+        <v>19311</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-189</v>
+        <v>-3994</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -604,9 +622,9 @@
       <c r="I3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
@@ -618,7 +636,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -635,10 +653,10 @@
         <v>6940</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>7621</v>
+        <v>8225</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-681</v>
+        <v>-1285</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -649,7 +667,7 @@
       <c r="I4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -663,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -673,17 +691,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>6487</v>
+        <v>8125</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>6537</v>
+        <v>8225</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -694,7 +712,7 @@
       <c r="I5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -708,7 +726,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>23-JAN-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -718,17 +736,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6525</v>
+        <v>8036</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>6537</v>
+        <v>8225</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-12</v>
+        <v>-189</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -739,7 +757,7 @@
       <c r="I6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -753,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>25-JAN-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -763,17 +781,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>6204</v>
+        <v>6940</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>6537</v>
+        <v>7621</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-333</v>
+        <v>-681</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -784,7 +802,7 @@
       <c r="I7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -798,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>25-JAN-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -812,13 +830,13 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>6487</v>
+        <v>6940</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>6537</v>
+        <v>7142</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-50</v>
+        <v>-202</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -829,7 +847,7 @@
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -843,7 +861,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>08-FEB-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -853,17 +871,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Air Arabia Egypt E5-591</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>6487</v>
+        <v>6469</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>6537</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-50</v>
+        <v>-68</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -874,7 +892,7 @@
       <c r="I9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -888,7 +906,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -898,17 +916,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>6204</v>
+        <v>6487</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>6537</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-333</v>
+        <v>-50</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -919,7 +937,7 @@
       <c r="I10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -933,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -943,17 +961,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>6487</v>
+        <v>6525</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>6537</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-50</v>
+        <v>-12</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -964,7 +982,7 @@
       <c r="I11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="3" t="inlineStr">
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -978,7 +996,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -988,17 +1006,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>6525</v>
+        <v>6487</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>6537</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-12</v>
+        <v>-50</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1009,7 +1027,7 @@
       <c r="I12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="inlineStr">
+      <c r="J12" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1023,7 +1041,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1033,17 +1051,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>6487</v>
+        <v>6525</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>6537</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-50</v>
+        <v>-12</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1054,7 +1072,7 @@
       <c r="I13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="3" t="inlineStr">
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1068,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1099,7 +1117,7 @@
       <c r="I14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1113,7 +1131,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>08-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1123,17 +1141,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>6204</v>
+        <v>6487</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>6537</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-333</v>
+        <v>-50</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1144,7 +1162,7 @@
       <c r="I15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1158,7 +1176,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>08-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1168,17 +1186,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>6487</v>
+        <v>6525</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>6537</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-50</v>
+        <v>-12</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1189,7 +1207,7 @@
       <c r="I16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="3" t="inlineStr">
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1203,7 +1221,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1213,17 +1231,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Air Arabia Egypt E5-591</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>6525</v>
+        <v>6204</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>6537</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-12</v>
+        <v>-333</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>30</v>
@@ -1234,7 +1252,7 @@
       <c r="I17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="3" t="inlineStr">
+      <c r="J17" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1248,7 +1266,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1279,7 +1297,7 @@
       <c r="I18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="3" t="inlineStr">
+      <c r="J18" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1293,7 +1311,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1324,7 +1342,7 @@
       <c r="I19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="3" t="inlineStr">
+      <c r="J19" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1338,7 +1356,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1369,7 +1387,7 @@
       <c r="I20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="inlineStr">
+      <c r="J20" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1383,7 +1401,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1414,7 +1432,7 @@
       <c r="I21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J21" s="3" t="inlineStr">
+      <c r="J21" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1428,7 +1446,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1459,7 +1477,7 @@
       <c r="I22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1473,7 +1491,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1504,7 +1522,7 @@
       <c r="I23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J23" s="3" t="inlineStr">
+      <c r="J23" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1518,7 +1536,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1549,7 +1567,7 @@
       <c r="I24" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="inlineStr">
+      <c r="J24" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1563,7 +1581,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1594,7 +1612,7 @@
       <c r="I25" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="3" t="inlineStr">
+      <c r="J25" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1608,7 +1626,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1639,7 +1657,7 @@
       <c r="I26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J26" s="3" t="inlineStr">
+      <c r="J26" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1653,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1684,7 +1702,7 @@
       <c r="I27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="3" t="inlineStr">
+      <c r="J27" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1698,7 +1716,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1729,7 +1747,7 @@
       <c r="I28" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J28" s="3" t="inlineStr">
+      <c r="J28" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1743,7 +1761,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1774,7 +1792,7 @@
       <c r="I29" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="inlineStr">
+      <c r="J29" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1788,7 +1806,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1819,7 +1837,7 @@
       <c r="I30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J30" s="3" t="inlineStr">
+      <c r="J30" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1833,7 +1851,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1864,7 +1882,7 @@
       <c r="I31" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J31" s="3" t="inlineStr">
+      <c r="J31" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1878,7 +1896,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1909,7 +1927,7 @@
       <c r="I32" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="inlineStr">
+      <c r="J32" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1923,7 +1941,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1954,7 +1972,7 @@
       <c r="I33" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J33" s="3" t="inlineStr">
+      <c r="J33" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1968,7 +1986,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1999,7 +2017,7 @@
       <c r="I34" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J34" s="3" t="inlineStr">
+      <c r="J34" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2013,7 +2031,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -2044,7 +2062,7 @@
       <c r="I35" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J35" s="3" t="inlineStr">
+      <c r="J35" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2058,7 +2076,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -2068,17 +2086,17 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Air Arabia Egypt E5-591</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>6487</v>
+        <v>6204</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>6537</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-50</v>
+        <v>-333</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>30</v>
@@ -2089,7 +2107,7 @@
       <c r="I36" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J36" s="3" t="inlineStr">
+      <c r="J36" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2103,7 +2121,7 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -2113,17 +2131,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>6525</v>
+        <v>6487</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>6537</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-12</v>
+        <v>-50</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>30</v>
@@ -2134,7 +2152,7 @@
       <c r="I37" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J37" s="3" t="inlineStr">
+      <c r="J37" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2148,7 +2166,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2158,17 +2176,17 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>6487</v>
+        <v>6525</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>6537</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-50</v>
+        <v>-12</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>30</v>
@@ -2179,7 +2197,7 @@
       <c r="I38" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J38" s="3" t="inlineStr">
+      <c r="J38" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2193,7 +2211,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -2203,17 +2221,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>6525</v>
+        <v>6487</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>6537</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-12</v>
+        <v>-50</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>30</v>
@@ -2224,7 +2242,7 @@
       <c r="I39" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J39" s="3" t="inlineStr">
+      <c r="J39" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2238,7 +2256,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -2248,17 +2266,17 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>9032</v>
+        <v>6525</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>9724</v>
+        <v>6537</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-692</v>
+        <v>-12</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>30</v>
@@ -2269,7 +2287,7 @@
       <c r="I40" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J40" s="3" t="inlineStr">
+      <c r="J40" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2283,7 +2301,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -2293,17 +2311,17 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>9082</v>
+        <v>6487</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>9724</v>
+        <v>6537</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-642</v>
+        <v>-50</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>30</v>
@@ -2314,7 +2332,7 @@
       <c r="I41" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="inlineStr">
+      <c r="J41" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2328,7 +2346,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -2338,17 +2356,17 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>10531</v>
+        <v>6525</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>10921</v>
+        <v>6537</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-390</v>
+        <v>-12</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>30</v>
@@ -2359,7 +2377,7 @@
       <c r="I42" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J42" s="3" t="inlineStr">
+      <c r="J42" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2373,7 +2391,7 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>31-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -2387,13 +2405,13 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>9523</v>
+        <v>6487</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>9724</v>
+        <v>6537</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-201</v>
+        <v>-50</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>30</v>
@@ -2404,7 +2422,7 @@
       <c r="I43" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="inlineStr">
+      <c r="J43" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2418,7 +2436,7 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>31-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -2428,28 +2446,28 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-633</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>11979</v>
+        <v>6525</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>9724</v>
+        <v>6537</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>2255</v>
+        <v>-12</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J44" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J44" s="5" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2463,43 +2481,358 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
+          <t>20-MAR-26</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-140</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>6487</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>6537</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>-50</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>20-MAR-26</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-105</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>6525</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>6537</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>-12</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>22-MAR-26</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-140</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>9032</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>9724</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>-692</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>22-MAR-26</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-105</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>9082</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>9724</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>-642</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>26-MAR-26</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-140</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>10531</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>10921</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>-390</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>31-MAR-26</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-140</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>9523</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>9724</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>-201</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>31-MAR-26</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-633</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>11979</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>9724</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>2255</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J51" s="5" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
           <t>01-APR-26</t>
         </is>
       </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>EgyptAir MS-633</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D52" s="2" t="n">
         <v>8603</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E52" s="2" t="n">
         <v>6348</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="F52" s="2" t="n">
         <v>2255</v>
       </c>
-      <c r="G45" s="2" t="n">
+      <c r="G52" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="H45" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I45" s="2" t="n">
+      <c r="H52" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I52" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr">
+      <c r="J52" s="5" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_CAI_ELQ_threats.xlsx
+++ b/excel_routes/route_CAI_ELQ_threats.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,7 +537,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>25-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>8478</v>
+        <v>8084</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9684</v>
+        <v>9780</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-1206</v>
+        <v>-1696</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -592,17 +592,17 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>7499</v>
+        <v>8514</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>7587</v>
+        <v>9780</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-88</v>
+        <v>-1266</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -637,17 +637,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>6188</v>
+        <v>6515</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>6506</v>
+        <v>6566</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-318</v>
+        <v>-51</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -682,17 +682,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Air Arabia Egypt E5-591</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>6456</v>
+        <v>6543</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>6506</v>
+        <v>6566</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-50</v>
+        <v>-23</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -717,7 +717,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6456</v>
+        <v>6553</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>6506</v>
+        <v>6566</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-50</v>
+        <v>-13</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -762,7 +762,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -772,26 +772,26 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>EgyptAir MS-633</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>6456</v>
+        <v>8312</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>6506</v>
+        <v>6566</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-50</v>
+        <v>1746</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>08-FEB-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -817,26 +817,26 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>EgyptAir MS-633</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>6456</v>
+        <v>8312</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>6506</v>
+        <v>6566</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-50</v>
+        <v>1746</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -862,17 +862,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>6456</v>
+        <v>6553</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>6506</v>
+        <v>7173</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-50</v>
+        <v>-620</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -897,7 +897,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -907,17 +907,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>6188</v>
+        <v>6515</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>6506</v>
+        <v>6566</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-318</v>
+        <v>-51</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -942,7 +942,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -952,17 +952,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>6456</v>
+        <v>6553</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>6506</v>
+        <v>6566</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-50</v>
+        <v>-13</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -987,7 +987,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>6188</v>
+        <v>6515</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>6506</v>
+        <v>6566</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-318</v>
+        <v>-51</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1032,7 +1032,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1042,17 +1042,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>6456</v>
+        <v>6553</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>6506</v>
+        <v>6566</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-50</v>
+        <v>-13</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1077,7 +1077,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>08-FEB-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>6456</v>
+        <v>6515</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>6506</v>
+        <v>6566</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-50</v>
+        <v>-51</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1122,7 +1122,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>08-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>6456</v>
+        <v>6553</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>6506</v>
+        <v>6566</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-50</v>
+        <v>-13</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1167,7 +1167,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>6188</v>
+        <v>6118</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>6506</v>
+        <v>6566</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-318</v>
+        <v>-448</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1212,7 +1212,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>6456</v>
+        <v>6515</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>6506</v>
+        <v>6566</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-50</v>
+        <v>-51</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>30</v>
@@ -1257,7 +1257,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1267,17 +1267,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>6456</v>
+        <v>6553</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>6506</v>
+        <v>6566</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-50</v>
+        <v>-13</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>30</v>
@@ -1302,7 +1302,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1316,13 +1316,13 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>6456</v>
+        <v>6515</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>6506</v>
+        <v>6566</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-50</v>
+        <v>-51</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>30</v>
@@ -1347,7 +1347,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1361,13 +1361,13 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>6188</v>
+        <v>6118</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>6506</v>
+        <v>6566</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-318</v>
+        <v>-448</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>30</v>
@@ -1392,7 +1392,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>6456</v>
+        <v>6515</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>6506</v>
+        <v>6566</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-50</v>
+        <v>-51</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>30</v>
@@ -1437,7 +1437,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1447,17 +1447,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>6456</v>
+        <v>6553</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>6506</v>
+        <v>6566</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-50</v>
+        <v>-13</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>30</v>
@@ -1482,7 +1482,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1492,17 +1492,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Air Arabia Egypt E5-591</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>6456</v>
+        <v>6118</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>6506</v>
+        <v>6566</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-50</v>
+        <v>-448</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>30</v>
@@ -1527,7 +1527,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1541,13 +1541,13 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>6456</v>
+        <v>6515</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>6506</v>
+        <v>6566</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-50</v>
+        <v>-51</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>30</v>
@@ -1572,7 +1572,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1582,17 +1582,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>6456</v>
+        <v>6553</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>6506</v>
+        <v>6566</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-50</v>
+        <v>-13</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>30</v>
@@ -1617,7 +1617,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1627,17 +1627,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>8579</v>
+        <v>6515</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>9684</v>
+        <v>6566</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-1105</v>
+        <v>-51</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>30</v>
@@ -1662,7 +1662,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1672,17 +1672,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>8981</v>
+        <v>6553</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>9684</v>
+        <v>6566</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-703</v>
+        <v>-13</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>30</v>
@@ -1707,7 +1707,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>10124</v>
+        <v>6515</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>10878</v>
+        <v>6566</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-754</v>
+        <v>-51</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>30</v>
@@ -1752,7 +1752,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1762,17 +1762,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>10476</v>
+        <v>6553</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>10878</v>
+        <v>6566</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-402</v>
+        <v>-13</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>30</v>
@@ -1797,7 +1797,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>31-MAR-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1807,17 +1807,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Air Arabia Egypt E5-591</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>9483</v>
+        <v>6118</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>9684</v>
+        <v>6566</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-201</v>
+        <v>-448</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>30</v>
@@ -1842,7 +1842,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>31-MAR-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1852,17 +1852,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>9534</v>
+        <v>6515</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>9684</v>
+        <v>6566</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-150</v>
+        <v>-51</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>30</v>
@@ -1887,7 +1887,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>31-MAR-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1897,26 +1897,26 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-633</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>11933</v>
+        <v>6553</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>9684</v>
+        <v>6566</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2249</v>
+        <v>-13</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1942,26 +1942,26 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-633</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>8566</v>
+        <v>6515</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>6330</v>
+        <v>6566</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2236</v>
+        <v>-51</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>13-MAY-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1987,17 +1987,17 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>6188</v>
+        <v>6553</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>7587</v>
+        <v>6566</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-1399</v>
+        <v>-13</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>30</v>
@@ -2022,7 +2022,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>15-MAY-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -2032,17 +2032,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>6258</v>
+        <v>6515</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>7587</v>
+        <v>6566</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-1329</v>
+        <v>-51</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>30</v>
@@ -2067,7 +2067,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -2077,17 +2077,17 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>6188</v>
+        <v>6553</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>7587</v>
+        <v>6566</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-1399</v>
+        <v>-13</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>30</v>
@@ -2112,7 +2112,7 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>29-MAY-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -2122,17 +2122,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>6522</v>
+        <v>6515</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>12071</v>
+        <v>6566</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-5549</v>
+        <v>-51</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>30</v>
@@ -2143,9 +2143,9 @@
       <c r="I37" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J37" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>29-MAY-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2171,13 +2171,13 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>10124</v>
+        <v>6553</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>12071</v>
+        <v>6566</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-1947</v>
+        <v>-13</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>30</v>
@@ -2202,7 +2202,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>29-MAY-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -2212,17 +2212,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-115</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>10124</v>
+        <v>6515</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>12071</v>
+        <v>6566</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-1947</v>
+        <v>-51</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>30</v>
@@ -2247,43 +2247,628 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
+          <t>13-MAR-26</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-105</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>6553</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>6566</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>15-MAR-26</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-140</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>6515</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>6566</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>-51</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>15-MAR-26</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-105</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>6553</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>6566</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>19-MAR-26</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-140</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>6515</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>6566</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>-51</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>19-MAR-26</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-105</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>6553</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>6566</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>20-MAR-26</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-140</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>6515</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>6566</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>-51</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>20-MAR-26</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-105</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>6553</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>6566</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>27-MAR-26</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-105</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>13828</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>15422</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>-1594</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>13-MAY-26</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-591</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>6307</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>7667</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>-1360</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>15-MAY-26</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-591</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>6378</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>7667</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>-1289</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>20-MAY-26</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-591</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>6307</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>7667</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>-1360</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
           <t>29-MAY-26</t>
         </is>
       </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-633</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>14458</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>12071</v>
-      </c>
-      <c r="F40" s="2" t="n">
-        <v>2387</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-591</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>6614</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>12196</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>-5582</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>29-MAY-26</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-105</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>10222</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>12196</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>-1974</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>29-MAY-26</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>SM-427</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-115</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>10222</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>12196</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>-1974</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_CAI_ELQ_threats.xlsx
+++ b/excel_routes/route_CAI_ELQ_threats.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,7 +537,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -547,17 +547,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>8084</v>
+        <v>6497</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9780</v>
+        <v>7124</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-1696</v>
+        <v>-627</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -582,7 +582,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -596,13 +596,13 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>8514</v>
+        <v>6497</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>9780</v>
+        <v>6522</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-1266</v>
+        <v>-25</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -627,7 +627,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -641,13 +641,13 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>6515</v>
+        <v>6485</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-51</v>
+        <v>-37</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -672,7 +672,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -682,17 +682,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>6543</v>
+        <v>6497</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-23</v>
+        <v>-25</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -717,7 +717,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6553</v>
+        <v>6485</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-13</v>
+        <v>-37</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -762,7 +762,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -772,26 +772,26 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-633</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>8312</v>
+        <v>6497</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1746</v>
+        <v>-25</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>08-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -817,26 +817,26 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-633</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>8312</v>
+        <v>6497</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1746</v>
+        <v>-25</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>01-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -862,17 +862,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>6553</v>
+        <v>6485</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>7173</v>
+        <v>6522</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-620</v>
+        <v>-37</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -897,7 +897,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -907,17 +907,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>6515</v>
+        <v>6497</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-51</v>
+        <v>-25</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -942,7 +942,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -952,17 +952,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>6553</v>
+        <v>6485</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-13</v>
+        <v>-37</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -987,7 +987,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>6515</v>
+        <v>6497</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-51</v>
+        <v>-25</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1032,7 +1032,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1042,17 +1042,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>6553</v>
+        <v>6485</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-13</v>
+        <v>-37</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1077,7 +1077,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>08-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1087,17 +1087,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>6515</v>
+        <v>6497</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-51</v>
+        <v>-25</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1122,7 +1122,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>08-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>6553</v>
+        <v>6485</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-13</v>
+        <v>-37</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1167,7 +1167,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1177,17 +1177,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>6118</v>
+        <v>6497</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-448</v>
+        <v>-25</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1212,7 +1212,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>6515</v>
+        <v>6485</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-51</v>
+        <v>-37</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>30</v>
@@ -1257,7 +1257,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>6553</v>
+        <v>6497</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-13</v>
+        <v>-25</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>30</v>
@@ -1302,7 +1302,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1316,13 +1316,13 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>6515</v>
+        <v>6485</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-51</v>
+        <v>-37</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>30</v>
@@ -1347,7 +1347,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1357,17 +1357,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>6118</v>
+        <v>6497</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-448</v>
+        <v>-25</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>30</v>
@@ -1392,7 +1392,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>6515</v>
+        <v>6485</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-51</v>
+        <v>-37</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>30</v>
@@ -1437,7 +1437,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1447,17 +1447,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>6553</v>
+        <v>6485</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-13</v>
+        <v>-37</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>30</v>
@@ -1482,7 +1482,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1492,17 +1492,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>6118</v>
+        <v>6497</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-448</v>
+        <v>-25</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>30</v>
@@ -1527,7 +1527,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1541,13 +1541,13 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>6515</v>
+        <v>6485</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-51</v>
+        <v>-37</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>30</v>
@@ -1572,7 +1572,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1586,13 +1586,13 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>6553</v>
+        <v>6497</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-13</v>
+        <v>-25</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>30</v>
@@ -1617,7 +1617,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1631,13 +1631,13 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>6515</v>
+        <v>6485</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-51</v>
+        <v>-37</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>30</v>
@@ -1662,7 +1662,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1676,13 +1676,13 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>6553</v>
+        <v>6497</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-13</v>
+        <v>-25</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>30</v>
@@ -1707,7 +1707,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1721,13 +1721,13 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>6515</v>
+        <v>6485</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-51</v>
+        <v>-37</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>30</v>
@@ -1752,7 +1752,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>6553</v>
+        <v>6497</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-13</v>
+        <v>-25</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>30</v>
@@ -1797,7 +1797,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1807,17 +1807,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>6118</v>
+        <v>6485</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-448</v>
+        <v>-37</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>30</v>
@@ -1842,7 +1842,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1852,17 +1852,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>6515</v>
+        <v>6497</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-51</v>
+        <v>-25</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>30</v>
@@ -1887,7 +1887,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1897,17 +1897,17 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>6553</v>
+        <v>6485</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-13</v>
+        <v>-37</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>30</v>
@@ -1932,7 +1932,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1942,17 +1942,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>6515</v>
+        <v>6497</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-51</v>
+        <v>-25</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>30</v>
@@ -1977,7 +1977,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1987,17 +1987,17 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>6553</v>
+        <v>6485</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-13</v>
+        <v>-37</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>30</v>
@@ -2022,7 +2022,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -2032,17 +2032,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>6515</v>
+        <v>6497</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-51</v>
+        <v>-25</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>30</v>
@@ -2067,7 +2067,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -2081,13 +2081,13 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>6553</v>
+        <v>13760</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>6566</v>
+        <v>15340</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-13</v>
+        <v>-1580</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>30</v>
@@ -2112,7 +2112,7 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -2122,26 +2122,26 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>EgyptAir MS-633</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>6515</v>
+        <v>8805</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>6566</v>
+        <v>6522</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-51</v>
+        <v>2283</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>13-MAY-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2167,17 +2167,17 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Air Arabia Egypt E5-591</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>6553</v>
+        <v>6256</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>6566</v>
+        <v>7613</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-13</v>
+        <v>-1357</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>30</v>
@@ -2202,7 +2202,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>15-MAY-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -2212,17 +2212,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Air Arabia Egypt E5-591</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>6515</v>
+        <v>6326</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>6566</v>
+        <v>7613</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-51</v>
+        <v>-1287</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>30</v>
@@ -2247,7 +2247,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -2257,17 +2257,17 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Air Arabia Egypt E5-591</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>6553</v>
+        <v>6256</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>6566</v>
+        <v>7613</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-13</v>
+        <v>-1357</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>30</v>
@@ -2292,7 +2292,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>29-MAY-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -2302,17 +2302,17 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Air Arabia Egypt E5-591</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>6515</v>
+        <v>6795</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>6566</v>
+        <v>12129</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-51</v>
+        <v>-5334</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>30</v>
@@ -2323,9 +2323,9 @@
       <c r="I41" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J41" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>29-MAY-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -2351,13 +2351,13 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>6553</v>
+        <v>10160</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>6566</v>
+        <v>12129</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-13</v>
+        <v>-1969</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>30</v>
@@ -2382,7 +2382,7 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>29-MAY-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -2392,17 +2392,17 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-115</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>6515</v>
+        <v>10160</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>6566</v>
+        <v>12129</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-51</v>
+        <v>-1969</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>30</v>
@@ -2419,456 +2419,6 @@
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>19-MAR-26</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-105</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>6553</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>6566</v>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>-13</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>20-MAR-26</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-140</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>6515</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>6566</v>
-      </c>
-      <c r="F45" s="2" t="n">
-        <v>-51</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>20-MAR-26</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-105</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>6553</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>6566</v>
-      </c>
-      <c r="F46" s="2" t="n">
-        <v>-13</v>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-105</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>13828</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>15422</v>
-      </c>
-      <c r="F47" s="2" t="n">
-        <v>-1594</v>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>13-MAY-26</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-591</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>6307</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>7667</v>
-      </c>
-      <c r="F48" s="2" t="n">
-        <v>-1360</v>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>15-MAY-26</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-591</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>6378</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>7667</v>
-      </c>
-      <c r="F49" s="2" t="n">
-        <v>-1289</v>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>20-MAY-26</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-591</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>6307</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>7667</v>
-      </c>
-      <c r="F50" s="2" t="n">
-        <v>-1360</v>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>29-MAY-26</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-591</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>6614</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>12196</v>
-      </c>
-      <c r="F51" s="2" t="n">
-        <v>-5582</v>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>29-MAY-26</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-105</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>10222</v>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>12196</v>
-      </c>
-      <c r="F52" s="2" t="n">
-        <v>-1974</v>
-      </c>
-      <c r="G52" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H52" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>29-MAY-26</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-115</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>10222</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>12196</v>
-      </c>
-      <c r="F53" s="2" t="n">
-        <v>-1974</v>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H53" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_CAI_ELQ_threats.xlsx
+++ b/excel_routes/route_CAI_ELQ_threats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_030226_at_07.14\reports\excel_routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_300126_at_05.16\reports\excel_routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38E4AC6-1E1A-4163-9F90-E416947E8E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C26A9A-4985-45E6-879D-26DF24F1171C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -60,24 +60,30 @@
     <t>Currency</t>
   </si>
   <si>
+    <t>30-JAN-26</t>
+  </si>
+  <si>
+    <t>SM-427</t>
+  </si>
+  <si>
+    <t>Nile Air NP-105</t>
+  </si>
+  <si>
+    <t>LOW THREAT</t>
+  </si>
+  <si>
+    <t>EGP</t>
+  </si>
+  <si>
+    <t>01-FEB-26</t>
+  </si>
+  <si>
     <t>05-FEB-26</t>
   </si>
   <si>
-    <t>SM-427</t>
-  </si>
-  <si>
     <t>Nesma Airlines NE-140</t>
   </si>
   <si>
-    <t>LOW THREAT</t>
-  </si>
-  <si>
-    <t>EGP</t>
-  </si>
-  <si>
-    <t>Nile Air NP-105</t>
-  </si>
-  <si>
     <t>06-FEB-26</t>
   </si>
   <si>
@@ -87,22 +93,73 @@
     <t>12-FEB-26</t>
   </si>
   <si>
+    <t>15-FEB-26</t>
+  </si>
+  <si>
+    <t>19-FEB-26</t>
+  </si>
+  <si>
+    <t>26-FEB-26</t>
+  </si>
+  <si>
+    <t>27-FEB-26</t>
+  </si>
+  <si>
+    <t>01-MAR-26</t>
+  </si>
+  <si>
+    <t>05-MAR-26</t>
+  </si>
+  <si>
+    <t>06-MAR-26</t>
+  </si>
+  <si>
+    <t>08-MAR-26</t>
+  </si>
+  <si>
+    <t>12-MAR-26</t>
+  </si>
+  <si>
+    <t>13-MAR-26</t>
+  </si>
+  <si>
+    <t>15-MAR-26</t>
+  </si>
+  <si>
+    <t>19-MAR-26</t>
+  </si>
+  <si>
+    <t>20-MAR-26</t>
+  </si>
+  <si>
+    <t>27-MAR-26</t>
+  </si>
+  <si>
+    <t>01-APR-26</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-633</t>
+  </si>
+  <si>
+    <t>13-MAY-26</t>
+  </si>
+  <si>
     <t>Air Arabia Egypt E5-591</t>
   </si>
   <si>
-    <t>15-FEB-26</t>
-  </si>
-  <si>
-    <t>19-FEB-26</t>
-  </si>
-  <si>
-    <t>26-FEB-26</t>
-  </si>
-  <si>
-    <t>27-FEB-26</t>
-  </si>
-  <si>
-    <t>01-MAR-26</t>
+    <t>15-MAY-26</t>
+  </si>
+  <si>
+    <t>20-MAY-26</t>
+  </si>
+  <si>
+    <t>29-MAY-26</t>
+  </si>
+  <si>
+    <t>HIGH THREAT ALERT - NEED ACTION</t>
+  </si>
+  <si>
+    <t>Nile Air NP-115</t>
   </si>
 </sst>
 </file>
@@ -129,7 +186,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +203,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EDDA"/>
         <bgColor rgb="FFD4EDDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8D7DA"/>
+        <bgColor rgb="FFF8D7DA"/>
       </patternFill>
     </fill>
   </fills>
@@ -176,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -185,6 +248,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,7 +556,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,7 +570,7 @@
     <col min="7" max="7" width="153.44140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -554,13 +620,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>6474</v>
+        <v>6497</v>
       </c>
       <c r="E2" s="2">
-        <v>6525</v>
+        <v>7124</v>
       </c>
       <c r="F2" s="2">
-        <v>-51</v>
+        <v>-627</v>
       </c>
       <c r="G2" s="2">
         <v>30</v>
@@ -580,22 +646,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2">
-        <v>6512</v>
+        <v>6497</v>
       </c>
       <c r="E3" s="2">
-        <v>6525</v>
+        <v>6522</v>
       </c>
       <c r="F3" s="2">
-        <v>-13</v>
+        <v>-25</v>
       </c>
       <c r="G3" s="2">
         <v>30</v>
@@ -621,16 +687,16 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>6474</v>
+        <v>6485</v>
       </c>
       <c r="E4" s="2">
-        <v>6525</v>
+        <v>6522</v>
       </c>
       <c r="F4" s="2">
-        <v>-51</v>
+        <v>-37</v>
       </c>
       <c r="G4" s="2">
         <v>30</v>
@@ -656,16 +722,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>6512</v>
+        <v>6497</v>
       </c>
       <c r="E5" s="2">
-        <v>6525</v>
+        <v>6522</v>
       </c>
       <c r="F5" s="2">
-        <v>-13</v>
+        <v>-25</v>
       </c>
       <c r="G5" s="2">
         <v>30</v>
@@ -685,22 +751,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" s="2">
-        <v>6512</v>
+        <v>6485</v>
       </c>
       <c r="E6" s="2">
-        <v>6525</v>
+        <v>6522</v>
       </c>
       <c r="F6" s="2">
-        <v>-13</v>
+        <v>-37</v>
       </c>
       <c r="G6" s="2">
         <v>30</v>
@@ -726,16 +792,16 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
-        <v>6086</v>
+        <v>6497</v>
       </c>
       <c r="E7" s="2">
-        <v>6525</v>
+        <v>6522</v>
       </c>
       <c r="F7" s="2">
-        <v>-439</v>
+        <v>-25</v>
       </c>
       <c r="G7" s="2">
         <v>30</v>
@@ -755,7 +821,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -764,13 +830,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="2">
-        <v>6474</v>
+        <v>6497</v>
       </c>
       <c r="E8" s="2">
-        <v>6525</v>
+        <v>6522</v>
       </c>
       <c r="F8" s="2">
-        <v>-51</v>
+        <v>-25</v>
       </c>
       <c r="G8" s="2">
         <v>30</v>
@@ -790,22 +856,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>6512</v>
+        <v>6485</v>
       </c>
       <c r="E9" s="2">
-        <v>6525</v>
+        <v>6522</v>
       </c>
       <c r="F9" s="2">
-        <v>-13</v>
+        <v>-37</v>
       </c>
       <c r="G9" s="2">
         <v>30</v>
@@ -834,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="D10" s="2">
-        <v>6474</v>
+        <v>6497</v>
       </c>
       <c r="E10" s="2">
-        <v>6525</v>
+        <v>6522</v>
       </c>
       <c r="F10" s="2">
-        <v>-51</v>
+        <v>-25</v>
       </c>
       <c r="G10" s="2">
         <v>30</v>
@@ -860,22 +926,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>6512</v>
+        <v>6485</v>
       </c>
       <c r="E11" s="2">
-        <v>6525</v>
+        <v>6522</v>
       </c>
       <c r="F11" s="2">
-        <v>-13</v>
+        <v>-37</v>
       </c>
       <c r="G11" s="2">
         <v>30</v>
@@ -901,16 +967,16 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2">
-        <v>6086</v>
+        <v>6497</v>
       </c>
       <c r="E12" s="2">
-        <v>6349</v>
+        <v>6522</v>
       </c>
       <c r="F12" s="2">
-        <v>-263</v>
+        <v>-25</v>
       </c>
       <c r="G12" s="2">
         <v>30</v>
@@ -936,16 +1002,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2">
-        <v>6086</v>
+        <v>6485</v>
       </c>
       <c r="E13" s="2">
-        <v>6525</v>
+        <v>6522</v>
       </c>
       <c r="F13" s="2">
-        <v>-439</v>
+        <v>-37</v>
       </c>
       <c r="G13" s="2">
         <v>30</v>
@@ -974,13 +1040,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="2">
-        <v>6474</v>
+        <v>6497</v>
       </c>
       <c r="E14" s="2">
-        <v>6525</v>
+        <v>6522</v>
       </c>
       <c r="F14" s="2">
-        <v>-51</v>
+        <v>-25</v>
       </c>
       <c r="G14" s="2">
         <v>30</v>
@@ -1000,22 +1066,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2">
-        <v>6512</v>
+        <v>6485</v>
       </c>
       <c r="E15" s="2">
-        <v>6525</v>
+        <v>6522</v>
       </c>
       <c r="F15" s="2">
-        <v>-13</v>
+        <v>-37</v>
       </c>
       <c r="G15" s="2">
         <v>30</v>
@@ -1044,13 +1110,13 @@
         <v>13</v>
       </c>
       <c r="D16" s="2">
-        <v>6474</v>
+        <v>6497</v>
       </c>
       <c r="E16" s="2">
-        <v>6525</v>
+        <v>6522</v>
       </c>
       <c r="F16" s="2">
-        <v>-51</v>
+        <v>-25</v>
       </c>
       <c r="G16" s="2">
         <v>30</v>
@@ -1070,22 +1136,22 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2">
-        <v>6512</v>
+        <v>6485</v>
       </c>
       <c r="E17" s="2">
-        <v>6525</v>
+        <v>6522</v>
       </c>
       <c r="F17" s="2">
-        <v>-13</v>
+        <v>-37</v>
       </c>
       <c r="G17" s="2">
         <v>30</v>
@@ -1114,13 +1180,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="2">
-        <v>6474</v>
+        <v>6497</v>
       </c>
       <c r="E18" s="2">
-        <v>6525</v>
+        <v>6522</v>
       </c>
       <c r="F18" s="2">
-        <v>-51</v>
+        <v>-25</v>
       </c>
       <c r="G18" s="2">
         <v>30</v>
@@ -1140,22 +1206,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2">
-        <v>6512</v>
+        <v>6485</v>
       </c>
       <c r="E19" s="2">
-        <v>6525</v>
+        <v>6522</v>
       </c>
       <c r="F19" s="2">
-        <v>-13</v>
+        <v>-37</v>
       </c>
       <c r="G19" s="2">
         <v>30</v>
@@ -1170,6 +1236,846 @@
         <v>14</v>
       </c>
       <c r="K19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6497</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6522</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-25</v>
+      </c>
+      <c r="G20" s="2">
+        <v>30</v>
+      </c>
+      <c r="H20" s="2">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2">
+        <v>6485</v>
+      </c>
+      <c r="E21" s="2">
+        <v>6522</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-37</v>
+      </c>
+      <c r="G21" s="2">
+        <v>30</v>
+      </c>
+      <c r="H21" s="2">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6485</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6522</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-37</v>
+      </c>
+      <c r="G22" s="2">
+        <v>30</v>
+      </c>
+      <c r="H22" s="2">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2">
+        <v>6497</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6522</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-25</v>
+      </c>
+      <c r="G23" s="2">
+        <v>30</v>
+      </c>
+      <c r="H23" s="2">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2">
+        <v>6485</v>
+      </c>
+      <c r="E24" s="2">
+        <v>6522</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-37</v>
+      </c>
+      <c r="G24" s="2">
+        <v>30</v>
+      </c>
+      <c r="H24" s="2">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
+        <v>6497</v>
+      </c>
+      <c r="E25" s="2">
+        <v>6522</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-25</v>
+      </c>
+      <c r="G25" s="2">
+        <v>30</v>
+      </c>
+      <c r="H25" s="2">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="2">
+        <v>6485</v>
+      </c>
+      <c r="E26" s="2">
+        <v>6522</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-37</v>
+      </c>
+      <c r="G26" s="2">
+        <v>30</v>
+      </c>
+      <c r="H26" s="2">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
+        <v>6497</v>
+      </c>
+      <c r="E27" s="2">
+        <v>6522</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-25</v>
+      </c>
+      <c r="G27" s="2">
+        <v>30</v>
+      </c>
+      <c r="H27" s="2">
+        <v>30</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2">
+        <v>6485</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6522</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-37</v>
+      </c>
+      <c r="G28" s="2">
+        <v>30</v>
+      </c>
+      <c r="H28" s="2">
+        <v>30</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
+        <v>6497</v>
+      </c>
+      <c r="E29" s="2">
+        <v>6522</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-25</v>
+      </c>
+      <c r="G29" s="2">
+        <v>30</v>
+      </c>
+      <c r="H29" s="2">
+        <v>30</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="2">
+        <v>6485</v>
+      </c>
+      <c r="E30" s="2">
+        <v>6522</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-37</v>
+      </c>
+      <c r="G30" s="2">
+        <v>30</v>
+      </c>
+      <c r="H30" s="2">
+        <v>30</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
+        <v>6497</v>
+      </c>
+      <c r="E31" s="2">
+        <v>6522</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-25</v>
+      </c>
+      <c r="G31" s="2">
+        <v>30</v>
+      </c>
+      <c r="H31" s="2">
+        <v>30</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="2">
+        <v>6485</v>
+      </c>
+      <c r="E32" s="2">
+        <v>6522</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-37</v>
+      </c>
+      <c r="G32" s="2">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
+        <v>6497</v>
+      </c>
+      <c r="E33" s="2">
+        <v>6522</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-25</v>
+      </c>
+      <c r="G33" s="2">
+        <v>30</v>
+      </c>
+      <c r="H33" s="2">
+        <v>30</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="2">
+        <v>6485</v>
+      </c>
+      <c r="E34" s="2">
+        <v>6522</v>
+      </c>
+      <c r="F34" s="2">
+        <v>-37</v>
+      </c>
+      <c r="G34" s="2">
+        <v>30</v>
+      </c>
+      <c r="H34" s="2">
+        <v>30</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2">
+        <v>6497</v>
+      </c>
+      <c r="E35" s="2">
+        <v>6522</v>
+      </c>
+      <c r="F35" s="2">
+        <v>-25</v>
+      </c>
+      <c r="G35" s="2">
+        <v>30</v>
+      </c>
+      <c r="H35" s="2">
+        <v>30</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2">
+        <v>13760</v>
+      </c>
+      <c r="E36" s="2">
+        <v>15340</v>
+      </c>
+      <c r="F36" s="2">
+        <v>-1580</v>
+      </c>
+      <c r="G36" s="2">
+        <v>30</v>
+      </c>
+      <c r="H36" s="2">
+        <v>30</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="2">
+        <v>8805</v>
+      </c>
+      <c r="E37" s="2">
+        <v>6522</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2283</v>
+      </c>
+      <c r="G37" s="2">
+        <v>46</v>
+      </c>
+      <c r="H37" s="2">
+        <v>30</v>
+      </c>
+      <c r="I37" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="2">
+        <v>6256</v>
+      </c>
+      <c r="E38" s="2">
+        <v>7613</v>
+      </c>
+      <c r="F38" s="2">
+        <v>-1357</v>
+      </c>
+      <c r="G38" s="2">
+        <v>30</v>
+      </c>
+      <c r="H38" s="2">
+        <v>30</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="2">
+        <v>6326</v>
+      </c>
+      <c r="E39" s="2">
+        <v>7613</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-1287</v>
+      </c>
+      <c r="G39" s="2">
+        <v>30</v>
+      </c>
+      <c r="H39" s="2">
+        <v>30</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="2">
+        <v>6256</v>
+      </c>
+      <c r="E40" s="2">
+        <v>7613</v>
+      </c>
+      <c r="F40" s="2">
+        <v>-1357</v>
+      </c>
+      <c r="G40" s="2">
+        <v>30</v>
+      </c>
+      <c r="H40" s="2">
+        <v>30</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="2">
+        <v>6795</v>
+      </c>
+      <c r="E41" s="2">
+        <v>12129</v>
+      </c>
+      <c r="F41" s="2">
+        <v>-5334</v>
+      </c>
+      <c r="G41" s="2">
+        <v>30</v>
+      </c>
+      <c r="H41" s="2">
+        <v>30</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2">
+        <v>10160</v>
+      </c>
+      <c r="E42" s="2">
+        <v>12129</v>
+      </c>
+      <c r="F42" s="2">
+        <v>-1969</v>
+      </c>
+      <c r="G42" s="2">
+        <v>30</v>
+      </c>
+      <c r="H42" s="2">
+        <v>30</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="2">
+        <v>10160</v>
+      </c>
+      <c r="E43" s="2">
+        <v>12129</v>
+      </c>
+      <c r="F43" s="2">
+        <v>-1969</v>
+      </c>
+      <c r="G43" s="2">
+        <v>30</v>
+      </c>
+      <c r="H43" s="2">
+        <v>30</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/excel_routes/route_CAI_ELQ_threats.xlsx
+++ b/excel_routes/route_CAI_ELQ_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -50,12 +50,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00D4EDDA"/>
         <bgColor rgb="00D4EDDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF3CD"/>
-        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -77,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -86,9 +80,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +464,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -547,17 +538,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>6132</v>
+        <v>5955</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>6369</v>
+        <v>6081</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-237</v>
+        <v>-126</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -582,7 +573,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -596,13 +587,13 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>5976</v>
+        <v>5955</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6077</v>
+        <v>6081</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-101</v>
+        <v>-126</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -627,7 +618,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -637,17 +628,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>5801</v>
+        <v>5955</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>6369</v>
+        <v>6081</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-568</v>
+        <v>-126</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -682,17 +673,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>5976</v>
+        <v>5536</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>6369</v>
+        <v>6081</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-393</v>
+        <v>-545</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -717,7 +708,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -727,17 +718,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Air Arabia Egypt E5-591</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>5976</v>
+        <v>5804</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>6559</v>
+        <v>6081</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-583</v>
+        <v>-277</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -762,27 +753,27 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>11-MAR-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>SM-967</t>
+          <t>SM-427</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>5140</v>
+        <v>5955</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>5609</v>
+        <v>6081</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-469</v>
+        <v>-126</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -807,7 +798,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -821,13 +812,13 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>5976</v>
+        <v>5955</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>6077</v>
+        <v>6081</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-101</v>
+        <v>-126</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -852,27 +843,27 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SM-427</t>
+          <t>SM-967</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>5976</v>
+        <v>5144</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>6077</v>
+        <v>5600</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-101</v>
+        <v>-456</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -897,7 +888,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -907,17 +898,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>5976</v>
+        <v>5536</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>6559</v>
+        <v>6081</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-583</v>
+        <v>-545</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -942,7 +933,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -952,17 +943,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Air Arabia Egypt E5-591</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>6495</v>
+        <v>5804</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>6559</v>
+        <v>6081</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-64</v>
+        <v>-277</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -987,7 +978,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -997,17 +988,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>5801</v>
+        <v>5955</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>6559</v>
+        <v>6081</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-758</v>
+        <v>-126</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1032,7 +1023,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1042,17 +1033,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-105</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>6483</v>
+        <v>5536</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>6559</v>
+        <v>6081</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-76</v>
+        <v>-545</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1077,7 +1068,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1087,17 +1078,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>6495</v>
+        <v>5955</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>6559</v>
+        <v>6081</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-64</v>
+        <v>-126</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1122,27 +1113,27 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>SM-967</t>
+          <t>SM-427</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>5801</v>
+        <v>5536</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>6369</v>
+        <v>6081</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-568</v>
+        <v>-545</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1167,7 +1158,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1181,13 +1172,13 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>6483</v>
+        <v>5955</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>6559</v>
+        <v>6081</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-76</v>
+        <v>-126</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1212,7 +1203,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1222,17 +1213,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Air Arabia Egypt E5-591</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>6495</v>
+        <v>5804</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>6559</v>
+        <v>6550</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-64</v>
+        <v>-746</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>30</v>
@@ -1257,7 +1248,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>08-APR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1267,17 +1258,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>5232</v>
+        <v>6487</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>5609</v>
+        <v>6550</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-377</v>
+        <v>-63</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>30</v>
@@ -1302,7 +1293,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>10-APR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1312,17 +1303,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>5303</v>
+        <v>6487</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>5786</v>
+        <v>6550</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-483</v>
+        <v>-63</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>30</v>
@@ -1347,27 +1338,27 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>14-APR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>SM-427</t>
+          <t>SM-967</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-140</t>
+          <t>Air Arabia Egypt E5-591</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>5546</v>
+        <v>5804</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>5609</v>
+        <v>6373</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-63</v>
+        <v>-569</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>30</v>
@@ -1392,7 +1383,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>15-APR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1402,17 +1393,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>5232</v>
+        <v>6487</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>5786</v>
+        <v>6550</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-554</v>
+        <v>-63</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>30</v>
@@ -1437,7 +1428,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>17-APR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1447,17 +1438,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>5303</v>
+        <v>6487</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>5609</v>
+        <v>6550</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-306</v>
+        <v>-63</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>30</v>
@@ -1482,7 +1473,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>22-APR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1492,17 +1483,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nesma Airlines NE-140</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>5232</v>
+        <v>12011</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>5419</v>
+        <v>13253</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-187</v>
+        <v>-1242</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>30</v>
@@ -1527,7 +1518,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>24-APR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1537,17 +1528,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>5303</v>
+        <v>12062</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>5419</v>
+        <v>13253</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-116</v>
+        <v>-1191</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>30</v>
@@ -1572,7 +1563,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>29-APR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1586,13 +1577,13 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>5232</v>
+        <v>13051</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>5609</v>
+        <v>13253</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-377</v>
+        <v>-202</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>30</v>
@@ -1617,7 +1608,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>01-MAY-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1627,17 +1618,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-591</t>
+          <t>Nile Air NP-105</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>5303</v>
+        <v>16762</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>5609</v>
+        <v>18068</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-306</v>
+        <v>-1306</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>30</v>
@@ -1654,861 +1645,6 @@
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>06-MAY-26</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-591</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>5232</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>5419</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>-187</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>08-MAY-26</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-591</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>5303</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>5419</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>-116</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>13-MAY-26</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-591</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>6132</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>7635</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>-1503</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>15-MAY-26</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-591</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>6203</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>7635</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>-1432</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>20-MAY-26</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-591</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>6132</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>7635</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>-1503</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>29-MAY-26</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-591</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>7434</v>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v>12130</v>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>-4696</v>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>29-MAY-26</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-105</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>10180</v>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>12130</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>-1950</v>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>29-MAY-26</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-115</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>10180</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>12130</v>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>-1950</v>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>02-JUN-26</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-633</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>8217</v>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>12130</v>
-      </c>
-      <c r="F35" s="2" t="n">
-        <v>-3913</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J35" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>02-JUN-26</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-105</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>10180</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>12130</v>
-      </c>
-      <c r="F36" s="2" t="n">
-        <v>-1950</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>03-JUN-26</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-105</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>10180</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>12130</v>
-      </c>
-      <c r="F37" s="2" t="n">
-        <v>-1950</v>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>05-JUN-26</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-105</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>10180</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>12130</v>
-      </c>
-      <c r="F38" s="2" t="n">
-        <v>-1950</v>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>05-JUN-26</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-115</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>10180</v>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>12130</v>
-      </c>
-      <c r="F39" s="2" t="n">
-        <v>-1950</v>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>10-JUN-26</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-591</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>6132</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>6559</v>
-      </c>
-      <c r="F40" s="2" t="n">
-        <v>-427</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>12-JUN-26</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-591</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>6203</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>6559</v>
-      </c>
-      <c r="F41" s="2" t="n">
-        <v>-356</v>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>17-JUN-26</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-591</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>6132</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>6559</v>
-      </c>
-      <c r="F42" s="2" t="n">
-        <v>-427</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>19-JUN-26</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-591</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>6203</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>6559</v>
-      </c>
-      <c r="F43" s="2" t="n">
-        <v>-356</v>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>24-JUN-26</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-591</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>6132</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>6559</v>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>-427</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>26-JUN-26</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>SM-427</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-591</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>6203</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>6559</v>
-      </c>
-      <c r="F45" s="2" t="n">
-        <v>-356</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>
